--- a/reports-api/src/reports/config/reports/rep_24557/template.xlsx
+++ b/reports-api/src/reports/config/reports/rep_24557/template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\mygithub\ie-asuse-web\reports-api\src\sandbox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\mygithub\ie-asuse-web\reports-api\src\reports\config\reports\rep_24557\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{548106A1-3892-411A-B66F-092E8139323C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9399D02D-A380-4D9E-8C8D-314A20AE5BB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>№ п/п</t>
   </si>
@@ -37,9 +37,6 @@
 [:a0.mes_name_rp]  [:a0.god1] -го года  , в т.ч.</t>
   </si>
   <si>
-    <t>Просроченная задолженность свыше 3-лет.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Просроченная задолженность 
 за [:a0.god4] год, в т.ч. </t>
   </si>
@@ -53,9 +50,6 @@
     <t>[:a0.dolg]</t>
   </si>
   <si>
-    <t>[:a0.dolg5]</t>
-  </si>
-  <si>
     <t>[:a0.dolg4]</t>
   </si>
   <si>
@@ -68,9 +62,6 @@
     <t>[:a.dolg]</t>
   </si>
   <si>
-    <t>[:a.dolg5]</t>
-  </si>
-  <si>
     <t>[:a.dolg4]</t>
   </si>
   <si>
@@ -83,9 +74,6 @@
     <t>[:c.dolg]</t>
   </si>
   <si>
-    <t>[:c.dolg5]</t>
-  </si>
-  <si>
     <t>[:c.dolg4]</t>
   </si>
   <si>
@@ -98,9 +86,6 @@
     <t>[:b.dolg]</t>
   </si>
   <si>
-    <t>[:b.dolg5]</t>
-  </si>
-  <si>
     <t>[:b.dolg4]</t>
   </si>
   <si>
@@ -113,9 +98,6 @@
     <t>[:c1.dolg]</t>
   </si>
   <si>
-    <t>[:c1.dolg5]</t>
-  </si>
-  <si>
     <t>[:c1.dolg4]</t>
   </si>
   <si>
@@ -126,9 +108,6 @@
   </si>
   <si>
     <t>[:all_dog.dolg]</t>
-  </si>
-  <si>
-    <t>[:all_dog.dolg5]</t>
   </si>
   <si>
     <t>[:all_dog.dolg4]</t>
@@ -1117,10 +1096,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1129,24 +1108,23 @@
     <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.7109375" customWidth="1"/>
     <col min="4" max="4" width="25.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C2">
         <v>2</v>
       </c>
+      <c r="E2" s="25"/>
       <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
     </row>
-    <row r="3" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1156,17 +1134,14 @@
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1175,22 +1150,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="5" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <f>A4+1</f>
         <v>2</v>
@@ -1200,22 +1172,19 @@
         <v>2</v>
       </c>
       <c r="C5" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="F5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="6" spans="1:7" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <f>A5+1</f>
         <v>3</v>
@@ -1225,22 +1194,19 @@
         <v>3</v>
       </c>
       <c r="C6" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7">
         <f>A6+1</f>
         <v>4</v>
@@ -1250,22 +1216,19 @@
         <v>4</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <f>A6+1</f>
         <v>4</v>
@@ -1275,22 +1238,19 @@
         <v>4</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>30</v>
+        <v>22</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="12" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" s="12" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <f>A7+1</f>
         <v>5</v>
@@ -1300,25 +1260,22 @@
         <v>5</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>35</v>
+        <v>26</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C10" s="17"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="18">
         <v>1</v>
       </c>

--- a/reports-api/src/reports/config/reports/rep_24557/template.xlsx
+++ b/reports-api/src/reports/config/reports/rep_24557/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\mygithub\ie-asuse-web\reports-api\src\reports\config\reports\rep_24557\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9399D02D-A380-4D9E-8C8D-314A20AE5BB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FC6BF2-2BEC-4C84-B4F2-8EFD03D22BA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1099,14 +1099,14 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.140625" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="3" max="3" width="64.42578125" customWidth="1"/>
     <col min="4" max="4" width="25.42578125" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" customWidth="1"/>
@@ -1162,7 +1162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <f>A4+1</f>
         <v>2</v>
@@ -1184,7 +1184,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" s="7" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <f>A5+1</f>
         <v>3</v>
